--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1114.099309362494</v>
+        <v>1175.077312430885</v>
       </c>
       <c r="AB2" t="n">
-        <v>1524.359825662419</v>
+        <v>1607.792619620224</v>
       </c>
       <c r="AC2" t="n">
-        <v>1378.877063353649</v>
+        <v>1454.347148554784</v>
       </c>
       <c r="AD2" t="n">
-        <v>1114099.309362494</v>
+        <v>1175077.312430885</v>
       </c>
       <c r="AE2" t="n">
-        <v>1524359.825662419</v>
+        <v>1607792.619620224</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.559066876750143e-06</v>
+        <v>2.884681908192327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.747916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1378877.063353649</v>
+        <v>1454347.148554784</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.0974904808995</v>
+        <v>418.4887812168068</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.2215728301802</v>
+        <v>572.5948128828509</v>
       </c>
       <c r="AC3" t="n">
-        <v>487.7590227214978</v>
+        <v>517.9471675831782</v>
       </c>
       <c r="AD3" t="n">
-        <v>394097.4904808995</v>
+        <v>418488.7812168068</v>
       </c>
       <c r="AE3" t="n">
-        <v>539221.5728301802</v>
+        <v>572594.8128828509</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.904704836059895e-06</v>
+        <v>5.374464440349718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.23125</v>
       </c>
       <c r="AH3" t="n">
-        <v>487759.0227214978</v>
+        <v>517947.1675831782</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.3240829206613</v>
+        <v>324.6300328019971</v>
       </c>
       <c r="AB4" t="n">
-        <v>410.9166596154952</v>
+        <v>444.1731325459682</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.6993503469455</v>
+        <v>401.7818721766871</v>
       </c>
       <c r="AD4" t="n">
-        <v>300324.0829206613</v>
+        <v>324630.0328019971</v>
       </c>
       <c r="AE4" t="n">
-        <v>410916.6596154952</v>
+        <v>444173.1325459682</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.395314165760534e-06</v>
+        <v>6.28222014889756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.476041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>371699.3503469455</v>
+        <v>401781.8721766871</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>265.4303967036226</v>
+        <v>289.7363465849584</v>
       </c>
       <c r="AB5" t="n">
-        <v>363.1735787325525</v>
+        <v>396.4300516630255</v>
       </c>
       <c r="AC5" t="n">
-        <v>328.5128020956359</v>
+        <v>358.5953239253776</v>
       </c>
       <c r="AD5" t="n">
-        <v>265430.3967036227</v>
+        <v>289736.3465849584</v>
       </c>
       <c r="AE5" t="n">
-        <v>363173.5787325525</v>
+        <v>396430.0516630255</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.658489672980264e-06</v>
+        <v>6.769163740399288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.154166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>328512.802095636</v>
+        <v>358595.3239253776</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.9004395920077</v>
+        <v>266.3165597239018</v>
       </c>
       <c r="AB6" t="n">
-        <v>314.559923941212</v>
+        <v>364.3860660716517</v>
       </c>
       <c r="AC6" t="n">
-        <v>284.5387662879821</v>
+        <v>329.6095713448282</v>
       </c>
       <c r="AD6" t="n">
-        <v>229900.4395920077</v>
+        <v>266316.5597239018</v>
       </c>
       <c r="AE6" t="n">
-        <v>314559.9239412121</v>
+        <v>364386.0660716516</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.83471806140678e-06</v>
+        <v>7.095232398123282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.9625</v>
       </c>
       <c r="AH6" t="n">
-        <v>284538.7662879821</v>
+        <v>329609.5713448282</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>217.9674527732451</v>
+        <v>242.3586540006011</v>
       </c>
       <c r="AB7" t="n">
-        <v>298.2326849295656</v>
+        <v>331.6058025126706</v>
       </c>
       <c r="AC7" t="n">
-        <v>269.769776052178</v>
+        <v>299.9578101326269</v>
       </c>
       <c r="AD7" t="n">
-        <v>217967.4527732451</v>
+        <v>242358.6540006011</v>
       </c>
       <c r="AE7" t="n">
-        <v>298232.6849295655</v>
+        <v>331605.8025126706</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.918601607222381e-06</v>
+        <v>7.25043891980482e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.878124999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>269769.776052178</v>
+        <v>299957.8101326269</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>218.7743875367353</v>
+        <v>243.1655887640913</v>
       </c>
       <c r="AB8" t="n">
-        <v>299.3367686724214</v>
+        <v>332.7098862555266</v>
       </c>
       <c r="AC8" t="n">
-        <v>270.7684875922074</v>
+        <v>300.9565216726563</v>
       </c>
       <c r="AD8" t="n">
-        <v>218774.3875367353</v>
+        <v>243165.5887640913</v>
       </c>
       <c r="AE8" t="n">
-        <v>299336.7686724215</v>
+        <v>332709.8862555266</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.914225074397219e-06</v>
+        <v>7.242341188238826e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.882291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>270768.4875922074</v>
+        <v>300956.5216726563</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>681.7751554181878</v>
+        <v>728.8300039490567</v>
       </c>
       <c r="AB2" t="n">
-        <v>932.8348454402379</v>
+        <v>997.2173651135793</v>
       </c>
       <c r="AC2" t="n">
-        <v>843.8063970333493</v>
+        <v>902.0443393905009</v>
       </c>
       <c r="AD2" t="n">
-        <v>681775.1554181877</v>
+        <v>728830.0039490567</v>
       </c>
       <c r="AE2" t="n">
-        <v>932834.8454402379</v>
+        <v>997217.3651135793</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.048676544286434e-06</v>
+        <v>3.905093670575032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.673958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>843806.3970333493</v>
+        <v>902044.3393905009</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.7612815583162</v>
+        <v>337.9670771018963</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.25134231315</v>
+        <v>462.4214649459583</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.7157756081926</v>
+        <v>418.2886093441176</v>
       </c>
       <c r="AD3" t="n">
-        <v>302761.2815583162</v>
+        <v>337967.0771018963</v>
       </c>
       <c r="AE3" t="n">
-        <v>414251.3423131499</v>
+        <v>462421.4649459583</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293728587775427e-06</v>
+        <v>6.278355017333339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.772916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>374715.7756081927</v>
+        <v>418288.6093441176</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.3670577473999</v>
+        <v>268.8092306668168</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.7220332404448</v>
+        <v>367.7966484246287</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.6811935769098</v>
+        <v>332.6946525048195</v>
       </c>
       <c r="AD4" t="n">
-        <v>245367.0577473998</v>
+        <v>268809.2306668168</v>
       </c>
       <c r="AE4" t="n">
-        <v>335722.0332404448</v>
+        <v>367796.6484246287</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.746474785407788e-06</v>
+        <v>7.141359143427268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.195833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>303681.1935769098</v>
+        <v>332694.6525048196</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.976448518143</v>
+        <v>229.5038727835772</v>
       </c>
       <c r="AB5" t="n">
-        <v>281.8260639019707</v>
+        <v>314.0173237386248</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.9289799086143</v>
+        <v>284.0479510871854</v>
       </c>
       <c r="AD5" t="n">
-        <v>205976.448518143</v>
+        <v>229503.8727835772</v>
       </c>
       <c r="AE5" t="n">
-        <v>281826.0639019706</v>
+        <v>314017.3237386248</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.980242738785297e-06</v>
+        <v>7.586956940533768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.950000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>254928.9799086143</v>
+        <v>284047.9510871854</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.487708502524</v>
+        <v>226.0151327679581</v>
       </c>
       <c r="AB6" t="n">
-        <v>277.0526159002562</v>
+        <v>309.2438757369104</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.6111030846056</v>
+        <v>279.7300742631767</v>
       </c>
       <c r="AD6" t="n">
-        <v>202487.708502524</v>
+        <v>226015.1327679581</v>
       </c>
       <c r="AE6" t="n">
-        <v>277052.6159002561</v>
+        <v>309243.8757369103</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.011633141821141e-06</v>
+        <v>7.64679189327628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.91875</v>
       </c>
       <c r="AH6" t="n">
-        <v>250611.1030846056</v>
+        <v>279730.0742631767</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.3970549409033</v>
+        <v>250.7020415599039</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.1887296849508</v>
+        <v>343.021593455584</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.539138641436</v>
+        <v>310.2840940101154</v>
       </c>
       <c r="AD2" t="n">
-        <v>219397.0549409033</v>
+        <v>250702.0415599039</v>
       </c>
       <c r="AE2" t="n">
-        <v>300188.7296849508</v>
+        <v>343021.593455584</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.647872146418991e-06</v>
+        <v>7.769013013027894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.808333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>271539.138641436</v>
+        <v>310284.0940101154</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.4136780002804</v>
+        <v>200.2553116366413</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.4817094127202</v>
+        <v>273.9981520219582</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.0532796021845</v>
+        <v>247.8481529518844</v>
       </c>
       <c r="AD3" t="n">
-        <v>179413.6780002804</v>
+        <v>200255.3116366413</v>
       </c>
       <c r="AE3" t="n">
-        <v>245481.7094127202</v>
+        <v>273998.1520219581</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.119222628268624e-06</v>
+        <v>8.772866185563444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.258333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>222053.2796021845</v>
+        <v>247848.1529518844</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.5193117788131</v>
+        <v>368.4346999174141</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.0723244431312</v>
+        <v>504.108610618804</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.2591061103321</v>
+        <v>455.9971923422233</v>
       </c>
       <c r="AD2" t="n">
-        <v>335519.3117788131</v>
+        <v>368434.6999174141</v>
       </c>
       <c r="AE2" t="n">
-        <v>459072.3244431312</v>
+        <v>504108.610618804</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.991030019334278e-06</v>
+        <v>6.072825033029021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.610416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>415259.1061103321</v>
+        <v>455997.1923422233</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.0991081484798</v>
+        <v>219.9574488948597</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.0479392844727</v>
+        <v>300.9554854155899</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.1795043774141</v>
+        <v>272.2327162812916</v>
       </c>
       <c r="AD3" t="n">
-        <v>198099.1081484798</v>
+        <v>219957.4488948596</v>
       </c>
       <c r="AE3" t="n">
-        <v>271047.9392844727</v>
+        <v>300955.4854155899</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.037874415845866e-06</v>
+        <v>8.198281085200873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>245179.5043774141</v>
+        <v>272232.7162812916</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.0051835590248</v>
+        <v>212.8635243054046</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.34171869932</v>
+        <v>291.2492648304373</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.3996318621391</v>
+        <v>263.4528437660167</v>
       </c>
       <c r="AD4" t="n">
-        <v>191005.1835590248</v>
+        <v>212863.5243054046</v>
       </c>
       <c r="AE4" t="n">
-        <v>261341.71869932</v>
+        <v>291249.2648304373</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.12261435930002e-06</v>
+        <v>8.370332467694315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.070833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>236399.6318621391</v>
+        <v>263452.8437660167</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.842281780499</v>
+        <v>193.0205992290574</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.4904351952794</v>
+        <v>264.0992993329215</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.9201199767208</v>
+        <v>238.8940328703592</v>
       </c>
       <c r="AD2" t="n">
-        <v>172842.281780499</v>
+        <v>193020.5992290574</v>
       </c>
       <c r="AE2" t="n">
-        <v>236490.4351952795</v>
+        <v>264099.2993329215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.015463774693861e-06</v>
+        <v>8.941653509631858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.537500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>213920.1199767208</v>
+        <v>238894.0328703592</v>
       </c>
     </row>
     <row r="3">
@@ -5274,28 +5274,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.728821796559</v>
+        <v>193.9071392451174</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.7034383566373</v>
+        <v>265.3123024942793</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.0173558188196</v>
+        <v>239.9912687124581</v>
       </c>
       <c r="AD3" t="n">
-        <v>173728.821796559</v>
+        <v>193907.1392451174</v>
       </c>
       <c r="AE3" t="n">
-        <v>237703.4383566373</v>
+        <v>265312.3024942793</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.025083118202209e-06</v>
+        <v>8.963073908735903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.526041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>215017.3558188196</v>
+        <v>239991.2687124581</v>
       </c>
     </row>
   </sheetData>
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.9405890698707</v>
+        <v>820.3642590342175</v>
       </c>
       <c r="AB2" t="n">
-        <v>1057.571413697549</v>
+        <v>1122.458571127429</v>
       </c>
       <c r="AC2" t="n">
-        <v>956.638282285056</v>
+        <v>1015.332700479525</v>
       </c>
       <c r="AD2" t="n">
-        <v>772940.5890698708</v>
+        <v>820364.2590342176</v>
       </c>
       <c r="AE2" t="n">
-        <v>1057571.413697549</v>
+        <v>1122458.571127428</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.920646142654078e-06</v>
+        <v>3.631487946810908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.111458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>956638.282285056</v>
+        <v>1015332.700479525</v>
       </c>
     </row>
     <row r="3">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.9976641912386</v>
+        <v>356.5440143194426</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.2031655639351</v>
+        <v>487.8392500036337</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.2862318680267</v>
+        <v>441.2805566699737</v>
       </c>
       <c r="AD3" t="n">
-        <v>320997.6641912386</v>
+        <v>356544.0143194426</v>
       </c>
       <c r="AE3" t="n">
-        <v>439203.1655639351</v>
+        <v>487839.2500036337</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.192651705905357e-06</v>
+        <v>6.036549852092544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.880208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>397286.2318680267</v>
+        <v>441280.5566699738</v>
       </c>
     </row>
     <row r="4">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.4292873671249</v>
+        <v>283.098496676288</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.9625961880975</v>
+        <v>387.3478525767124</v>
       </c>
       <c r="AC4" t="n">
-        <v>321.0854642010374</v>
+        <v>350.3799171729157</v>
       </c>
       <c r="AD4" t="n">
-        <v>259429.2873671249</v>
+        <v>283098.496676288</v>
       </c>
       <c r="AE4" t="n">
-        <v>354962.5961880975</v>
+        <v>387347.8525767124</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.649706262201173e-06</v>
+        <v>6.900732001715199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.26875</v>
       </c>
       <c r="AH4" t="n">
-        <v>321085.4642010374</v>
+        <v>350379.9171729157</v>
       </c>
     </row>
     <row r="5">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.5345079365602</v>
+        <v>252.995517210192</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.6403107038353</v>
+        <v>346.1596280213113</v>
       </c>
       <c r="AC5" t="n">
-        <v>269.2339371911489</v>
+        <v>313.12263896115</v>
       </c>
       <c r="AD5" t="n">
-        <v>217534.5079365602</v>
+        <v>252995.517210192</v>
       </c>
       <c r="AE5" t="n">
-        <v>297640.3107038353</v>
+        <v>346159.6280213113</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.894685111419937e-06</v>
+        <v>7.363929109399069e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>4</v>
       </c>
       <c r="AH5" t="n">
-        <v>269233.9371911489</v>
+        <v>313122.63896115</v>
       </c>
     </row>
     <row r="6">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.2239870512249</v>
+        <v>229.9784477064083</v>
       </c>
       <c r="AB6" t="n">
-        <v>282.1647570435625</v>
+        <v>314.66665808481</v>
       </c>
       <c r="AC6" t="n">
-        <v>255.2353486521316</v>
+        <v>284.6353138747173</v>
       </c>
       <c r="AD6" t="n">
-        <v>206223.9870512249</v>
+        <v>229978.4477064083</v>
       </c>
       <c r="AE6" t="n">
-        <v>282164.7570435625</v>
+        <v>314666.65808481</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.987561708101777e-06</v>
+        <v>7.539536804070427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.907291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>255235.3486521316</v>
+        <v>284635.3138747173</v>
       </c>
     </row>
     <row r="7">
@@ -6101,28 +6101,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>207.0034866877759</v>
+        <v>230.7579473429593</v>
       </c>
       <c r="AB7" t="n">
-        <v>283.2313028353879</v>
+        <v>315.7332038766354</v>
       </c>
       <c r="AC7" t="n">
-        <v>256.200104810492</v>
+        <v>285.6000700330777</v>
       </c>
       <c r="AD7" t="n">
-        <v>207003.4866877759</v>
+        <v>230757.9473429593</v>
       </c>
       <c r="AE7" t="n">
-        <v>283231.3028353879</v>
+        <v>315733.2038766354</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.986963469153745e-06</v>
+        <v>7.538405675602334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.907291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>256200.1048104919</v>
+        <v>285600.0700330777</v>
       </c>
     </row>
   </sheetData>
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.0580757874144</v>
+        <v>199.3715018872387</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.6809617250435</v>
+        <v>272.7888845318917</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.4742173078533</v>
+        <v>246.754296253852</v>
       </c>
       <c r="AD2" t="n">
-        <v>170058.0757874144</v>
+        <v>199371.5018872386</v>
       </c>
       <c r="AE2" t="n">
-        <v>232680.9617250435</v>
+        <v>272788.8845318917</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.914257217901279e-06</v>
+        <v>8.973695941600959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.763541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>210474.2173078533</v>
+        <v>246754.296253852</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>481.2799784148716</v>
+        <v>515.5511912694142</v>
       </c>
       <c r="AB2" t="n">
-        <v>658.5084990413559</v>
+        <v>705.399884408145</v>
       </c>
       <c r="AC2" t="n">
-        <v>595.6613721153313</v>
+        <v>638.0775094751867</v>
       </c>
       <c r="AD2" t="n">
-        <v>481279.9784148716</v>
+        <v>515551.1912694142</v>
       </c>
       <c r="AE2" t="n">
-        <v>658508.4990413559</v>
+        <v>705399.884408145</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.480525998512149e-06</v>
+        <v>4.861796676377779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.529166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>595661.3721153314</v>
+        <v>638077.5094751867</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.9268912999089</v>
+        <v>271.6322212872054</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.5927545557576</v>
+        <v>371.6591887330009</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.087060085991</v>
+        <v>336.18855738727</v>
       </c>
       <c r="AD3" t="n">
-        <v>248926.8912999089</v>
+        <v>271632.2212872054</v>
       </c>
       <c r="AE3" t="n">
-        <v>340592.7545557576</v>
+        <v>371659.1887330009</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.637990772092319e-06</v>
+        <v>7.130411636507924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.452083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>308087.060085991</v>
+        <v>336188.55738727</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.1261667446839</v>
+        <v>228.831496731977</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.0309149846258</v>
+        <v>313.097349161688</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.1142802914512</v>
+        <v>283.2157775926787</v>
       </c>
       <c r="AD4" t="n">
-        <v>206126.1667446839</v>
+        <v>228831.496731977</v>
       </c>
       <c r="AE4" t="n">
-        <v>282030.9149846258</v>
+        <v>313097.349161688</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.039464985604409e-06</v>
+        <v>7.917295546644414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.009375</v>
       </c>
       <c r="AH4" t="n">
-        <v>255114.2802914512</v>
+        <v>283215.7775926787</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.4177265515914</v>
+        <v>225.4329168424187</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.9061782218618</v>
+        <v>308.4472622220339</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.9102201600736</v>
+        <v>279.0094884241057</v>
       </c>
       <c r="AD5" t="n">
-        <v>191417.7265515914</v>
+        <v>225432.9168424187</v>
       </c>
       <c r="AE5" t="n">
-        <v>261906.1782218618</v>
+        <v>308447.2622220339</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.073050744751818e-06</v>
+        <v>7.983123170420355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.976041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>236910.2201600736</v>
+        <v>279009.4884241056</v>
       </c>
     </row>
   </sheetData>
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.5133670862534</v>
+        <v>645.4510883928182</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.3313227962658</v>
+        <v>883.1346544313893</v>
       </c>
       <c r="AC2" t="n">
-        <v>755.6084737434644</v>
+        <v>798.8495224997291</v>
       </c>
       <c r="AD2" t="n">
-        <v>610513.3670862535</v>
+        <v>645451.0883928182</v>
       </c>
       <c r="AE2" t="n">
-        <v>835331.3227962658</v>
+        <v>883134.6544313893</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.186358419297916e-06</v>
+        <v>4.203718069474426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.258333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>755608.4737434644</v>
+        <v>798849.5224997291</v>
       </c>
     </row>
     <row r="3">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.977055891818</v>
+        <v>319.8293468352601</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.918180171584</v>
+        <v>437.6046222149612</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.7049363096102</v>
+        <v>395.8402512527093</v>
       </c>
       <c r="AD3" t="n">
-        <v>284977.055891818</v>
+        <v>319829.3468352601</v>
       </c>
       <c r="AE3" t="n">
-        <v>389918.180171584</v>
+        <v>437604.6222149612</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.397684166063836e-06</v>
+        <v>6.532737815164007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.670833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>352704.9363096101</v>
+        <v>395840.2512527093</v>
       </c>
     </row>
     <row r="4">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.90034049504</v>
+        <v>255.1068436810282</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.2962765861402</v>
+        <v>349.0484380438579</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.0139652769743</v>
+        <v>315.735745009616</v>
       </c>
       <c r="AD4" t="n">
-        <v>231900.3404950399</v>
+        <v>255106.8436810282</v>
       </c>
       <c r="AE4" t="n">
-        <v>317296.2765861402</v>
+        <v>349048.4380438579</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.842999869471808e-06</v>
+        <v>7.388947690230116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.129166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>287013.9652769743</v>
+        <v>315735.745009616</v>
       </c>
     </row>
     <row r="5">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.5277042980952</v>
+        <v>221.8194588301041</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.634363444704</v>
+        <v>303.5031695550709</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.7099610388445</v>
+        <v>274.5372530221985</v>
       </c>
       <c r="AD5" t="n">
-        <v>198527.7042980953</v>
+        <v>221819.4588301041</v>
       </c>
       <c r="AE5" t="n">
-        <v>271634.363444704</v>
+        <v>303503.1695550709</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.032521845195215e-06</v>
+        <v>7.753342176915796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.935416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>245709.9610388445</v>
+        <v>274537.2530221985</v>
       </c>
     </row>
     <row r="6">
@@ -7734,28 +7734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.2344452849312</v>
+        <v>222.5261998169401</v>
       </c>
       <c r="AB6" t="n">
-        <v>272.6013576421044</v>
+        <v>304.4701637524713</v>
       </c>
       <c r="AC6" t="n">
-        <v>246.5846666672301</v>
+        <v>275.4119586505841</v>
       </c>
       <c r="AD6" t="n">
-        <v>199234.4452849313</v>
+        <v>222526.1998169401</v>
       </c>
       <c r="AE6" t="n">
-        <v>272601.3576421044</v>
+        <v>304470.1637524713</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.033131240615548e-06</v>
+        <v>7.754513863368161e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.934375000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>246584.6666672301</v>
+        <v>275411.9586505841</v>
       </c>
     </row>
   </sheetData>
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>986.6890090788135</v>
+        <v>1035.060520344843</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.031431868545</v>
+        <v>1416.215467583193</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.186326792026</v>
+        <v>1281.053851027945</v>
       </c>
       <c r="AD2" t="n">
-        <v>986689.0090788135</v>
+        <v>1035060.520344843</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350031.431868545</v>
+        <v>1416215.467583193</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.674906708182722e-06</v>
+        <v>3.120224161659668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.145833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221186.326792026</v>
+        <v>1281053.851027945</v>
       </c>
     </row>
     <row r="3">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.1684213162017</v>
+        <v>397.3542217034918</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.5854970736744</v>
+        <v>543.6775761657725</v>
       </c>
       <c r="AC3" t="n">
-        <v>461.855933844208</v>
+        <v>491.7897513527811</v>
       </c>
       <c r="AD3" t="n">
-        <v>373168.4213162017</v>
+        <v>397354.2217034918</v>
       </c>
       <c r="AE3" t="n">
-        <v>510585.4970736744</v>
+        <v>543677.5761657725</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.995715492458158e-06</v>
+        <v>5.580790748141417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.113541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>461855.933844208</v>
+        <v>491789.7513527811</v>
       </c>
     </row>
     <row r="4">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.6170438938237</v>
+        <v>311.7175034265422</v>
       </c>
       <c r="AB4" t="n">
-        <v>393.530328223979</v>
+        <v>426.5056401938795</v>
       </c>
       <c r="AC4" t="n">
-        <v>355.9723460215662</v>
+        <v>385.8005404982005</v>
       </c>
       <c r="AD4" t="n">
-        <v>287617.0438938237</v>
+        <v>311717.5034265422</v>
       </c>
       <c r="AE4" t="n">
-        <v>393530.328223979</v>
+        <v>426505.6401938795</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.469659682139714e-06</v>
+        <v>6.463712826546081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.414583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>355972.3460215662</v>
+        <v>385800.5404982005</v>
       </c>
     </row>
     <row r="5">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.3823593124651</v>
+        <v>277.4828188451867</v>
       </c>
       <c r="AB5" t="n">
-        <v>346.6889224519101</v>
+        <v>379.6642344219788</v>
       </c>
       <c r="AC5" t="n">
-        <v>313.601418274162</v>
+        <v>343.4296127508441</v>
       </c>
       <c r="AD5" t="n">
-        <v>253382.3593124651</v>
+        <v>277482.8188451867</v>
       </c>
       <c r="AE5" t="n">
-        <v>346688.9224519101</v>
+        <v>379664.2344219788</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.735821327601586e-06</v>
+        <v>6.959551784632473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>313601.418274162</v>
+        <v>343429.612750844</v>
       </c>
     </row>
     <row r="6">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>219.4559495442127</v>
+        <v>243.6416604229515</v>
       </c>
       <c r="AB6" t="n">
-        <v>300.2693118794453</v>
+        <v>333.3612685019781</v>
       </c>
       <c r="AC6" t="n">
-        <v>271.6120301843858</v>
+        <v>301.5457369117274</v>
       </c>
       <c r="AD6" t="n">
-        <v>219455.9495442127</v>
+        <v>243641.6604229515</v>
       </c>
       <c r="AE6" t="n">
-        <v>300269.3118794453</v>
+        <v>333361.2685019781</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.901253289559932e-06</v>
+        <v>7.267738982338102e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.926041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>271612.0301843858</v>
+        <v>301545.7369117274</v>
       </c>
     </row>
     <row r="7">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>213.9785801131608</v>
+        <v>238.1642909918995</v>
       </c>
       <c r="AB7" t="n">
-        <v>292.7749333793989</v>
+        <v>325.8668900019317</v>
       </c>
       <c r="AC7" t="n">
-        <v>264.8329046499552</v>
+        <v>294.7666113772967</v>
       </c>
       <c r="AD7" t="n">
-        <v>213978.5801131608</v>
+        <v>238164.2909918996</v>
       </c>
       <c r="AE7" t="n">
-        <v>292774.9333793989</v>
+        <v>325866.8900019317</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.943015669289862e-06</v>
+        <v>7.34553912824779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.884375</v>
       </c>
       <c r="AH7" t="n">
-        <v>264832.9046499552</v>
+        <v>294766.6113772967</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.2594678273649</v>
+        <v>410.6209182946919</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.1830473944818</v>
+        <v>561.8296557271988</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.9192618186088</v>
+        <v>508.2094219174684</v>
       </c>
       <c r="AD2" t="n">
-        <v>377259.4678273649</v>
+        <v>410620.9182946919</v>
       </c>
       <c r="AE2" t="n">
-        <v>516183.0473944818</v>
+        <v>561829.6557271988</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.804054962303316e-06</v>
+        <v>5.620720755111683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.910416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>466919.2618186089</v>
+        <v>508209.4219174684</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.9196128034724</v>
+        <v>237.0753284356696</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.0624958217149</v>
+        <v>324.3769233908612</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.9975839398821</v>
+        <v>293.4188450884052</v>
       </c>
       <c r="AD3" t="n">
-        <v>214919.6128034724</v>
+        <v>237075.3284356696</v>
       </c>
       <c r="AE3" t="n">
-        <v>294062.4958217149</v>
+        <v>324376.9233908613</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.898091384393405e-06</v>
+        <v>7.813713869425939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.251041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>265997.5839398821</v>
+        <v>293418.8450884052</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.5236688793152</v>
+        <v>216.6793845115125</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.1558655391562</v>
+        <v>296.4702931083026</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.7543232842804</v>
+        <v>268.1755844328034</v>
       </c>
       <c r="AD4" t="n">
-        <v>194523.6688793152</v>
+        <v>216679.3845115125</v>
       </c>
       <c r="AE4" t="n">
-        <v>266155.8655391562</v>
+        <v>296470.2931083026</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.114448739932523e-06</v>
+        <v>8.247401616331186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.027083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>240754.3232842804</v>
+        <v>268175.5844328034</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.6415060455482</v>
+        <v>283.9320935678433</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.3576954970027</v>
+        <v>388.4884166194377</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.0611014004613</v>
+        <v>351.411627384195</v>
       </c>
       <c r="AD2" t="n">
-        <v>262641.5060455482</v>
+        <v>283932.0935678433</v>
       </c>
       <c r="AE2" t="n">
-        <v>359357.6954970027</v>
+        <v>388488.4166194377</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409589827826009e-06</v>
+        <v>7.13307514845745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>325061.1014004613</v>
+        <v>351411.627384195</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.8674203095364</v>
+        <v>204.0726669772597</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.207272008599</v>
+        <v>279.2212260088215</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.3278411362829</v>
+        <v>252.5727440880735</v>
       </c>
       <c r="AD3" t="n">
-        <v>182867.4203095364</v>
+        <v>204072.6669772597</v>
       </c>
       <c r="AE3" t="n">
-        <v>250207.272008599</v>
+        <v>279221.2260088215</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.132605158023086e-06</v>
+        <v>8.645668435102399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.177083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>226327.8411362829</v>
+        <v>252572.7440880735</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.4437859907134</v>
+        <v>209.0598972510728</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.8371015454728</v>
+        <v>286.0449744905204</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.2294904506928</v>
+        <v>258.7452435918725</v>
       </c>
       <c r="AD2" t="n">
-        <v>188443.7859907134</v>
+        <v>209059.8972510727</v>
       </c>
       <c r="AE2" t="n">
-        <v>257837.1015454728</v>
+        <v>286044.9744905204</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.916026394928417e-06</v>
+        <v>8.512876573526756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.560416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>233229.4904506928</v>
+        <v>258745.2435918725</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.3853443695951</v>
+        <v>196.8308634293622</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.3382097385679</v>
+        <v>269.3126709087688</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.3052297214936</v>
+        <v>243.6098475800222</v>
       </c>
       <c r="AD3" t="n">
-        <v>176385.3443695951</v>
+        <v>196830.8634293622</v>
       </c>
       <c r="AE3" t="n">
-        <v>241338.2097385679</v>
+        <v>269312.6709087688</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.085394022234899e-06</v>
+        <v>8.881057367373911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.370833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>218305.2297214936</v>
+        <v>243609.8475800222</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.0222726031172</v>
+        <v>198.0471167937491</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.9461712807343</v>
+        <v>270.9768024192335</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.5688524778826</v>
+        <v>245.1151567147521</v>
       </c>
       <c r="AD2" t="n">
-        <v>179022.2726031172</v>
+        <v>198047.1167937491</v>
       </c>
       <c r="AE2" t="n">
-        <v>244946.1712807343</v>
+        <v>270976.8024192335</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.70208335869092e-06</v>
+        <v>8.80550508985639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.177083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>221568.8524778826</v>
+        <v>245115.1567147521</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.5154085528893</v>
+        <v>582.523092902932</v>
       </c>
       <c r="AB2" t="n">
-        <v>734.0840513713877</v>
+        <v>797.0337948148995</v>
       </c>
       <c r="AC2" t="n">
-        <v>664.0240998019387</v>
+        <v>720.9660080817216</v>
       </c>
       <c r="AD2" t="n">
-        <v>536515.4085528894</v>
+        <v>582523.0929029321</v>
       </c>
       <c r="AE2" t="n">
-        <v>734084.0513713877</v>
+        <v>797033.7948148994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.329587786087029e-06</v>
+        <v>4.520747260991719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.880208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>664024.0998019387</v>
+        <v>720966.0080817216</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.6861946785822</v>
+        <v>289.8180481354609</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.8918169237887</v>
+        <v>396.5418393288411</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.0670540454631</v>
+        <v>358.6964427332626</v>
       </c>
       <c r="AD3" t="n">
-        <v>266686.1946785822</v>
+        <v>289818.0481354609</v>
       </c>
       <c r="AE3" t="n">
-        <v>364891.8169237887</v>
+        <v>396541.8393288411</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.515154093339377e-06</v>
+        <v>6.821431385558508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.559375</v>
       </c>
       <c r="AH3" t="n">
-        <v>330067.0540454631</v>
+        <v>358696.4427332627</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.0068227585073</v>
+        <v>240.9680840147935</v>
       </c>
       <c r="AB4" t="n">
-        <v>298.2865526802823</v>
+        <v>329.7031633104716</v>
       </c>
       <c r="AC4" t="n">
-        <v>269.8185027403703</v>
+        <v>298.2367561455142</v>
       </c>
       <c r="AD4" t="n">
-        <v>218006.8227585073</v>
+        <v>240968.0840147935</v>
       </c>
       <c r="AE4" t="n">
-        <v>298286.5526802823</v>
+        <v>329703.1633104716</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.947528048352888e-06</v>
+        <v>7.66048685473861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.060416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>269818.5027403703</v>
+        <v>298236.7561455142</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.6666629756183</v>
+        <v>217.7131755779251</v>
       </c>
       <c r="AB5" t="n">
-        <v>266.3515163701723</v>
+        <v>297.8847716530107</v>
       </c>
       <c r="AC5" t="n">
-        <v>240.931301474582</v>
+        <v>269.4550671304382</v>
       </c>
       <c r="AD5" t="n">
-        <v>194666.6629756183</v>
+        <v>217713.1755779251</v>
       </c>
       <c r="AE5" t="n">
-        <v>266351.5163701723</v>
+        <v>297884.7716530107</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.054313644359783e-06</v>
+        <v>7.867712653888428e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>240931.301474582</v>
+        <v>269455.0671304382</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.7337541325163</v>
+        <v>926.5825667985671</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.903359998668</v>
+        <v>1267.791145831627</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.722407746214</v>
+        <v>1146.794938229504</v>
       </c>
       <c r="AD2" t="n">
-        <v>866733.7541325163</v>
+        <v>926582.5667985671</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185903.359998668</v>
+        <v>1267791.145831627</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794557473701244e-06</v>
+        <v>3.367293698585275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.606250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072722.407746213</v>
+        <v>1146794.938229505</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.9246012622122</v>
+        <v>376.799752520014</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.46807997886</v>
+        <v>515.5540446297565</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.9490211177389</v>
+        <v>466.3502901949379</v>
       </c>
       <c r="AD3" t="n">
-        <v>340924.6012622122</v>
+        <v>376799.752520014</v>
       </c>
       <c r="AE3" t="n">
-        <v>466468.07997886</v>
+        <v>515554.0446297565</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.090173701512652e-06</v>
+        <v>5.798377920533398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.997916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>421949.0211177389</v>
+        <v>466350.290194938</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.0844611522381</v>
+        <v>296.9728712144665</v>
       </c>
       <c r="AB4" t="n">
-        <v>373.6462073846398</v>
+        <v>406.3313839140533</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.9859377675947</v>
+        <v>367.5516869229743</v>
       </c>
       <c r="AD4" t="n">
-        <v>273084.4611522381</v>
+        <v>296972.8712144665</v>
       </c>
       <c r="AE4" t="n">
-        <v>373646.2073846398</v>
+        <v>406331.3839140533</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.561980846957365e-06</v>
+        <v>6.683673181947787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.336458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>337985.9377675947</v>
+        <v>367551.6869229743</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.1489761499215</v>
+        <v>265.0373862121529</v>
       </c>
       <c r="AB5" t="n">
-        <v>329.9506679101514</v>
+        <v>362.6358444397243</v>
       </c>
       <c r="AC5" t="n">
-        <v>298.4606392535755</v>
+        <v>328.0263884090004</v>
       </c>
       <c r="AD5" t="n">
-        <v>241148.9761499215</v>
+        <v>265037.3862121529</v>
       </c>
       <c r="AE5" t="n">
-        <v>329950.6679101514</v>
+        <v>362635.8444397243</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.816418641295243e-06</v>
+        <v>7.161098282069437e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>298460.6392535755</v>
+        <v>328026.3884090005</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>211.4261383593018</v>
+        <v>235.3997997675504</v>
       </c>
       <c r="AB6" t="n">
-        <v>289.2825699659879</v>
+        <v>322.0843911480339</v>
       </c>
       <c r="AC6" t="n">
-        <v>261.6738474991561</v>
+        <v>291.3451089052432</v>
       </c>
       <c r="AD6" t="n">
-        <v>211426.1383593018</v>
+        <v>235399.7997675504</v>
       </c>
       <c r="AE6" t="n">
-        <v>289282.5699659879</v>
+        <v>322084.3911480339</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.953571881250101e-06</v>
+        <v>7.41845155573641e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>261673.8474991561</v>
+        <v>291345.1089052432</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>210.71517098914</v>
+        <v>234.6888323973886</v>
       </c>
       <c r="AB7" t="n">
-        <v>288.3097930444663</v>
+        <v>321.1116142265122</v>
       </c>
       <c r="AC7" t="n">
-        <v>260.7939110417233</v>
+        <v>290.4651724478103</v>
       </c>
       <c r="AD7" t="n">
-        <v>210715.17098914</v>
+        <v>234688.8323973886</v>
       </c>
       <c r="AE7" t="n">
-        <v>288309.7930444664</v>
+        <v>321111.6142265123</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.961875212533855e-06</v>
+        <v>7.434031862034087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.897916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>260793.9110417233</v>
+        <v>290465.1724478104</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.3840595706018</v>
+        <v>218.779387114281</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.8601135731895</v>
+        <v>299.3436093149854</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.8685518568184</v>
+        <v>270.7746753734459</v>
       </c>
       <c r="AD2" t="n">
-        <v>191384.0595706018</v>
+        <v>218779.387114281</v>
       </c>
       <c r="AE2" t="n">
-        <v>261860.1135731895</v>
+        <v>299343.6093149854</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.270710265014135e-06</v>
+        <v>8.179798160130124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>236868.5518568184</v>
+        <v>270774.6753734459</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.6962736252862</v>
+        <v>329.9675223477228</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.3211750067988</v>
+        <v>451.47612121585</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.4470137430088</v>
+        <v>408.3878738577243</v>
       </c>
       <c r="AD2" t="n">
-        <v>297696.2736252862</v>
+        <v>329967.5223477228</v>
       </c>
       <c r="AE2" t="n">
-        <v>407321.1750067988</v>
+        <v>451476.1212158499</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.190877010671124e-06</v>
+        <v>6.570920244967779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.33125</v>
       </c>
       <c r="AH2" t="n">
-        <v>368447.0137430088</v>
+        <v>408387.8738577244</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.6206405560537</v>
+        <v>208.1632831587186</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.3425935302725</v>
+        <v>284.8181875335401</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.9730547793985</v>
+        <v>257.6355394602597</v>
       </c>
       <c r="AD3" t="n">
-        <v>186620.6405560537</v>
+        <v>208163.2831587186</v>
       </c>
       <c r="AE3" t="n">
-        <v>255342.5935302725</v>
+        <v>284818.1875335401</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.130993640683083e-06</v>
+        <v>8.506886869854141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.117708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>230973.0547793985</v>
+        <v>257635.5394602597</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.265662886699</v>
+        <v>208.808305489364</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.225141539438</v>
+        <v>285.7007355427056</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.7713736452334</v>
+        <v>258.4338583260946</v>
       </c>
       <c r="AD4" t="n">
-        <v>187265.662886699</v>
+        <v>208808.305489364</v>
       </c>
       <c r="AE4" t="n">
-        <v>256225.141539438</v>
+        <v>285700.7355427056</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.134259635576297e-06</v>
+        <v>8.513612479112041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>231771.3736452334</v>
+        <v>258433.8583260946</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.5290652744606</v>
+        <v>466.2277359147607</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.8053489441495</v>
+        <v>637.913356794632</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.3242770449431</v>
+        <v>577.031801339171</v>
       </c>
       <c r="AD2" t="n">
-        <v>432529.0652744606</v>
+        <v>466227.7359147607</v>
       </c>
       <c r="AE2" t="n">
-        <v>591805.3489441494</v>
+        <v>637913.356794632</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.637409982717873e-06</v>
+        <v>5.225194754018073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.209375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>535324.2770449431</v>
+        <v>577031.801339171</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.6600679138557</v>
+        <v>255.0974312253819</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.3357691573717</v>
+        <v>349.0355595067945</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.9542501361447</v>
+        <v>315.7240955820546</v>
       </c>
       <c r="AD3" t="n">
-        <v>232660.0679138557</v>
+        <v>255097.4312253819</v>
       </c>
       <c r="AE3" t="n">
-        <v>318335.7691573717</v>
+        <v>349035.5595067945</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.756049149754396e-06</v>
+        <v>7.441424898568807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.360416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>287954.2501361447</v>
+        <v>315724.0955820546</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.3849428701847</v>
+        <v>220.8223061817109</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.4390309608472</v>
+        <v>302.1388213102699</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.533270813096</v>
+        <v>273.3031162590061</v>
       </c>
       <c r="AD4" t="n">
-        <v>198384.9428701847</v>
+        <v>220822.3061817109</v>
       </c>
       <c r="AE4" t="n">
-        <v>271439.0309608472</v>
+        <v>302138.8213102699</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.092348401798124e-06</v>
+        <v>8.107695633522289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.002083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>245533.270813096</v>
+        <v>273303.1162590061</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.3951264745813</v>
+        <v>221.0083667517583</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.4022793319088</v>
+        <v>302.3933975906216</v>
       </c>
       <c r="AC5" t="n">
-        <v>231.9316056554053</v>
+        <v>273.5333961364611</v>
       </c>
       <c r="AD5" t="n">
-        <v>187395.1264745813</v>
+        <v>221008.3667517583</v>
       </c>
       <c r="AE5" t="n">
-        <v>256402.2793319088</v>
+        <v>302393.3975906216</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.098951753170652e-06</v>
+        <v>8.12077808834606e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.995833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>231931.6056554054</v>
+        <v>273533.3961364611</v>
       </c>
     </row>
   </sheetData>
